--- a/test/templates/template_combined.xlsx
+++ b/test/templates/template_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B41683B-1C32-B348-B80A-B10D4789BC0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F3A3A5-74A8-BA4E-AA2B-FAEE5A0B8592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A4746E25-F57C-A545-A491-8E3F5F46AFEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>sample_identifier</t>
   </si>
@@ -248,13 +248,28 @@
   </si>
   <si>
     <t>tiling_pcr_protocol</t>
+  </si>
+  <si>
+    <t>date_covid_confirmatory_pcred</t>
+  </si>
+  <si>
+    <t>covid_confirmatory_pcr_identifier</t>
+  </si>
+  <si>
+    <t>covid_confirmatory_pcr_ct</t>
+  </si>
+  <si>
+    <t>covid_confirmatory_pcr_protocol</t>
+  </si>
+  <si>
+    <t>cdc v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,8 +277,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -316,6 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC6CF4-2BA4-1D46-B587-F3FC146B4466}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,9 +690,12 @@
     <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -751,8 +783,20 @@
       <c r="AC1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -834,8 +878,18 @@
       <c r="AC2" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -917,8 +971,18 @@
       <c r="AC3" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1000,8 +1064,18 @@
       <c r="AC4" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1083,8 +1157,18 @@
       <c r="AC5" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="8"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1166,8 +1250,18 @@
       <c r="AC6" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1249,8 +1343,18 @@
       <c r="AC7" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="8"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1332,8 +1436,18 @@
       <c r="AC8" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1415,20 +1529,31 @@
       <c r="AC9" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test/templates/template_combined.xlsx
+++ b/test/templates/template_combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F3A3A5-74A8-BA4E-AA2B-FAEE5A0B8592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFBBCA-FBBF-9B46-9308-89C56288E996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A4746E25-F57C-A545-A491-8E3F5F46AFEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
   <si>
     <t>sample_identifier</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>cdc v1</t>
+  </si>
+  <si>
+    <t>extraction_processing_institution</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC6CF4-2BA4-1D46-B587-F3FC146B4466}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,16 +689,17 @@
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -771,32 +775,35 @@
       <c r="Y1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -866,30 +873,33 @@
       <c r="Y2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="6" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <v>12</v>
       </c>
-      <c r="AD2" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="8"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" s="8"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -959,30 +969,33 @@
       <c r="Y3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="6" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>12</v>
       </c>
-      <c r="AD3" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AE3" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="8"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3" s="8"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1052,30 +1065,33 @@
       <c r="Y4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="6" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>12</v>
       </c>
-      <c r="AD4" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AE4" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="8"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1145,30 +1161,33 @@
       <c r="Y5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="6" t="s">
+      <c r="Z5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>12</v>
       </c>
-      <c r="AD5" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AE5" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="8"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1238,30 +1257,33 @@
       <c r="Y6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="6" t="s">
+      <c r="Z6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AD6" s="6">
         <v>12</v>
       </c>
-      <c r="AD6" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AE6" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG6" s="8"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1331,30 +1353,33 @@
       <c r="Y7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z7" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6" t="s">
+      <c r="Z7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="6">
         <v>12</v>
       </c>
-      <c r="AD7" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AE7" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="8"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH7" s="8"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1424,30 +1449,33 @@
       <c r="Y8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6" t="s">
+      <c r="Z8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AD8" s="6">
         <v>12</v>
       </c>
-      <c r="AD8" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AE8" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="8"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1517,40 +1545,43 @@
       <c r="Y9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="7">
-        <v>44348</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="6" t="s">
+      <c r="Z9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>44348</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AD9" s="6">
         <v>12</v>
       </c>
-      <c r="AD9" s="9">
-        <v>44348</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="8" t="s">
+      <c r="AE9" s="9">
+        <v>44348</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG9" s="8"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z13" s="1"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/templates/template_combined.xlsx
+++ b/test/templates/template_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFBBCA-FBBF-9B46-9308-89C56288E996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31882798-9A9D-8443-A42C-420087C9961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A4746E25-F57C-A545-A491-8E3F5F46AFEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t>sample_identifier</t>
   </si>
@@ -266,6 +266,45 @@
   </si>
   <si>
     <t>extraction_processing_institution</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>data_storage_device</t>
+  </si>
+  <si>
+    <t>readset_batch_name</t>
+  </si>
+  <si>
+    <t>barcode17</t>
+  </si>
+  <si>
+    <t>mlw-gpu1</t>
+  </si>
+  <si>
+    <t>20210701_1420_MN33881_FAO36609_5c3b1ea9</t>
+  </si>
+  <si>
+    <t>barcode15</t>
+  </si>
+  <si>
+    <t>20210623_1513_MN33881_FAO36636_d6fbf869</t>
+  </si>
+  <si>
+    <t>20210628_1538_MN33881_FAO36636_219737d0</t>
+  </si>
+  <si>
+    <t>20210623_20210628_merged</t>
+  </si>
+  <si>
+    <t>barcode13</t>
+  </si>
+  <si>
+    <t>20210713_1422_MN33881_FAO36609_d9ac6fbd</t>
+  </si>
+  <si>
+    <t>barcode04</t>
   </si>
 </sst>
 </file>
@@ -287,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -348,6 +393,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC6CF4-2BA4-1D46-B587-F3FC146B4466}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +735,7 @@
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -697,9 +743,12 @@
     <col min="31" max="31" width="27.5" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -802,8 +851,17 @@
       <c r="AH1" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -898,8 +956,17 @@
         <v>75</v>
       </c>
       <c r="AH2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -994,8 +1061,17 @@
         <v>75</v>
       </c>
       <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1090,8 +1166,17 @@
         <v>75</v>
       </c>
       <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1186,8 +1271,17 @@
         <v>75</v>
       </c>
       <c r="AH5" s="8"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1282,8 +1376,17 @@
         <v>75</v>
       </c>
       <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1378,8 +1481,17 @@
         <v>75</v>
       </c>
       <c r="AH7" s="8"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1474,8 +1586,17 @@
         <v>75</v>
       </c>
       <c r="AH8" s="8"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1570,22 +1691,32 @@
         <v>75</v>
       </c>
       <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AA13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/test/templates/template_combined.xlsx
+++ b/test/templates/template_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31882798-9A9D-8443-A42C-420087C9961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9CAA7B-3F4D-1B4B-B982-2D2D458C3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A4746E25-F57C-A545-A491-8E3F5F46AFEF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
   <si>
     <t>sample_identifier</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>barcode04</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -708,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC6CF4-2BA4-1D46-B587-F3FC146B4466}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1713,6 +1716,11 @@
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AA13" s="1"/>
     </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI14" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
